--- a/biology/Médecine/Jean-Alban_Bergonié/Jean-Alban_Bergonié.xlsx
+++ b/biology/Médecine/Jean-Alban_Bergonié/Jean-Alban_Bergonié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Alban_Bergoni%C3%A9</t>
+          <t>Jean-Alban_Bergonié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Alban Bergonié, né le 7 octobre 1857[1] à Casseneuil (Lot-et-Garonne) et mort le 2 janvier 1925 à Bordeaux, est un médecin français, spécialiste de cancérologie[2].
-L'Institut Bergonié (Centre régional de lutte contre le cancer) à Bordeaux, premier centre anti-cancéreux de province, est fondé par ses soins en 1923, à l'hôpital Saint-André[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Alban Bergonié, né le 7 octobre 1857 à Casseneuil (Lot-et-Garonne) et mort le 2 janvier 1925 à Bordeaux, est un médecin français, spécialiste de cancérologie.
+L'Institut Bergonié (Centre régional de lutte contre le cancer) à Bordeaux, premier centre anti-cancéreux de province, est fondé par ses soins en 1923, à l'hôpital Saint-André.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Alban_Bergoni%C3%A9</t>
+          <t>Jean-Alban_Bergonié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite de la mort précoce de son père cafetier, Jean Alban Bergonié est élevé par sa mère, qui ne le quittera qu'à sa mort en 1905. Après ses études secondaires à Marmande, il fait ses études de médecine et de sciences à Bordeaux. Licencié ès sciences physiques en 1880, il est docteur en médecine, puis agrégé en 1883. En 1891, à l'âge de 34 ans, il devient titulaire de la chaire de physique. Il habite dans la rue du Temple à Bordeaux, et possède une petite propriété près de Saint-Morillon. Il y organise régulièrement pour ses élèves des parties de chasse et de tennis, suivies de réunions studieuses et conviviales. Bien que professeur en sciences fondamentales et non clinicien, il prend l'initiative de soigner des patients en utilisant la röntgenthérapie et la curiethérapie. Ces techniques sont très récentes, puisque les rayons X ont été découverts en 1895 par Roentgen et le radium en 1911 par Marie Curie-Sklodowska. Le professeur devient donc le précurseur de la radiobiologie.Il est élu membre correspondant non-résident de l'Académie nationale de médecine le 26 février 1895[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de la mort précoce de son père cafetier, Jean Alban Bergonié est élevé par sa mère, qui ne le quittera qu'à sa mort en 1905. Après ses études secondaires à Marmande, il fait ses études de médecine et de sciences à Bordeaux. Licencié ès sciences physiques en 1880, il est docteur en médecine, puis agrégé en 1883. En 1891, à l'âge de 34 ans, il devient titulaire de la chaire de physique. Il habite dans la rue du Temple à Bordeaux, et possède une petite propriété près de Saint-Morillon. Il y organise régulièrement pour ses élèves des parties de chasse et de tennis, suivies de réunions studieuses et conviviales. Bien que professeur en sciences fondamentales et non clinicien, il prend l'initiative de soigner des patients en utilisant la röntgenthérapie et la curiethérapie. Ces techniques sont très récentes, puisque les rayons X ont été découverts en 1895 par Roentgen et le radium en 1911 par Marie Curie-Sklodowska. Le professeur devient donc le précurseur de la radiobiologie.Il est élu membre correspondant non-résident de l'Académie nationale de médecine le 26 février 1895.
 Lorsque la Première Guerre mondiale éclate, il est mobilisé le 6 août 1914 dans des fonctions de médecin-chef de l’hôpital militaire de Grand-Lebrun où il va créer le premier service d'électroradiologie de la XVIIIe région. Il est nommé médecin expert en 1915.
 Atteint de radiodermite, il doit subir plusieurs amputations.
 Personnalité aux multiples facettes et aux multiples talents, précurseur dans de nombreux domaines, il a su par son travail, son énergie et son charisme, promouvoir en France une organisation cohérente et efficace de la lutte contre le cancer. Le Centre de Lutte Contre le Cancer de Bordeaux porte son nom depuis 1945.
 Il fut Président du groupe Espérantistes de Bordeaux de 1904 à 1911[réf. nécessaire].
-Il meurt le 2 janvier 1925 et lègue son corps à la science[5]. Il est inhumé dans le cimetière de la Chartreuse à Bordeaux le 5 janvier, division H, rang 7 dans le caveau Henry Chevalier[6].
+Il meurt le 2 janvier 1925 et lègue son corps à la science. Il est inhumé dans le cimetière de la Chartreuse à Bordeaux le 5 janvier, division H, rang 7 dans le caveau Henry Chevalier.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Alban_Bergoni%C3%A9</t>
+          <t>Jean-Alban_Bergonié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Éponymie: la loi de la radiosensitivité de Bergonié et Tribondeau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1906[2], Jean-Alban Bergonié et Louis Tribondeau ont montré que la radiosensitivité (en) d'une cellule varie[7],[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1906, Jean-Alban Bergonié et Louis Tribondeau ont montré que la radiosensitivité (en) d'une cellule varie, :
 proportionnellement à sa capacité de division ;
-en fonction inverse à son degré de différenciation[9].</t>
+en fonction inverse à son degré de différenciation.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Alban_Bergoni%C3%A9</t>
+          <t>Jean-Alban_Bergonié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il est le fondateur en 1893 puis l'éditeur scientifique de la revue médicale mensuelle Archives d'électricité médicale expérimentales et cliniques, tome premier et série complète lire en ligne sur Gallica.
 Titres et travaux scientifiques, Impr. Delmas, Chapon, Gounouilhou (Bordeaux), 1924, Texte intégral.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean-Alban_Bergoni%C3%A9</t>
+          <t>Jean-Alban_Bergonié</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,9 +639,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom est gravé sur le Mémorial de radiologie (de), qui commémore les pionniers et martyrs de la radioactivité (physiciens, chimistes, médecins, infirmiers, laborantins etc), victimes parmi les premiers utilisateurs des rayons X dans le monde entier. Le mémorial qui comportait à l'origine 159 noms a été érigé dans le jardin de l'ancien hôpital Saint-Georges (de) à Hambourg (Allemagne) et a été inauguré le 4 avril 1936[10]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom est gravé sur le Mémorial de radiologie (de), qui commémore les pionniers et martyrs de la radioactivité (physiciens, chimistes, médecins, infirmiers, laborantins etc), victimes parmi les premiers utilisateurs des rayons X dans le monde entier. Le mémorial qui comportait à l'origine 159 noms a été érigé dans le jardin de l'ancien hôpital Saint-Georges (de) à Hambourg (Allemagne) et a été inauguré le 4 avril 1936. 
 			Mémorial de radiologie, Clinique Asklepios Saint-Georges à Hambourg, (Allemagne)
 </t>
         </is>
